--- a/downloaded_files/AERS212_Lecture-35770.xlsx
+++ b/downloaded_files/AERS212_Lecture-35770.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,6 +51,15 @@
     <x:t>AHMED MEDHAT MOHAMED NABIL KAMEL EMARA</x:t>
   </x:si>
   <x:si>
+    <x:t>4250166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد وائل ابراهيم العجمى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Waaiel</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240021</x:t>
   </x:si>
   <x:si>
@@ -168,6 +177,15 @@
     <x:t>Loai Atef Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>4250191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد الغريب عبدالوهاب الغريب مصطفى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Algharieb</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220078</x:t>
   </x:si>
   <x:si>
@@ -193,6 +211,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Nabil Seddik Soliman Omar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250197</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان محمد فراج على محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marwan Mohamed Farag Ali Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1240381</x:t>
@@ -353,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -808,7 +835,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6664052431</x:v>
+        <x:v>45922.3835153588</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -840,7 +867,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45908.4188600694</x:v>
+        <x:v>45907.6664052431</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -872,7 +899,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6825510069</x:v>
+        <x:v>45908.4188600694</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -904,7 +931,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6652091435</x:v>
+        <x:v>45907.6825510069</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -936,7 +963,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6668284375</x:v>
+        <x:v>45907.6652091435</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -968,7 +995,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6699376968</x:v>
+        <x:v>45907.6668284375</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1000,7 +1027,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45907.6699376968</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1032,7 +1059,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4162835648</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1064,7 +1091,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6654020833</x:v>
+        <x:v>45908.4162835648</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1096,7 +1123,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6658456829</x:v>
+        <x:v>45907.6654020833</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1128,7 +1155,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6653321412</x:v>
+        <x:v>45907.6658456829</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1160,7 +1187,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6658606482</x:v>
+        <x:v>45907.6653321412</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1192,7 +1219,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6674473032</x:v>
+        <x:v>45907.6658606482</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1224,7 +1251,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4856465278</x:v>
+        <x:v>45907.6674473032</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1256,7 +1283,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6651458333</x:v>
+        <x:v>45922.3910580208</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1288,7 +1315,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6656043171</x:v>
+        <x:v>45909.4856465278</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1320,7 +1347,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.6651458333</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1352,7 +1379,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.6656043171</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1411,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6646742245</x:v>
+        <x:v>45922.3872527431</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1443,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45916.9570266551</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1448,7 +1475,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1465,6 +1492,102 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45907.6646742245</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45916.9570266551</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45907.6658591782</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/AERS212_Lecture-35770.xlsx
+++ b/downloaded_files/AERS212_Lecture-35770.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -193,6 +193,12 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Gamal Yones</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240046</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد شعبان محمد صالح</x:t>
   </x:si>
   <x:si>
     <x:t>1240261</x:t>
@@ -380,7 +386,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +686,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -835,7 +841,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45922.3835153588</x:v>
+        <x:v>45927.5221410069</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1123,7 +1129,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6654020833</x:v>
+        <x:v>45927.4167276968</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1343,11 +1349,9 @@
       <x:c r="C20" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
+      <x:c r="D20" s="2" t="s"/>
       <x:c r="E20" s="3">
-        <x:v>45907.6651458333</x:v>
+        <x:v>45927.4720945602</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1370,16 +1374,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6656043171</x:v>
+        <x:v>45907.6651458333</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1402,16 +1406,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
       <x:c r="E22" s="3">
-        <x:v>45922.3872527431</x:v>
+        <x:v>45907.6656043171</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1434,16 +1438,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45922.3872527431</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1466,16 +1470,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1498,16 +1502,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6646742245</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1530,16 +1534,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="E26" s="3">
-        <x:v>45916.9570266551</x:v>
+        <x:v>45907.6646742245</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1562,16 +1566,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45916.9570266551</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1588,6 +1592,38 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45907.6658591782</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/AERS212_Lecture-35770.xlsx
+++ b/downloaded_files/AERS212_Lecture-35770.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,6 +58,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Waaiel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد وائل فوزى سعد بكر ابو العز</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Wael fawzi saad bakr aboelez</x:t>
   </x:si>
   <x:si>
     <x:t>1240021</x:t>
@@ -386,7 +395,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -686,7 +695,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -873,7 +882,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6664052431</x:v>
+        <x:v>45928.9611408912</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -905,7 +914,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45908.4188600694</x:v>
+        <x:v>45907.6664052431</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -937,7 +946,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6825510069</x:v>
+        <x:v>45908.4188600694</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -969,7 +978,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6652091435</x:v>
+        <x:v>45907.6825510069</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1001,7 +1010,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6668284375</x:v>
+        <x:v>45907.6652091435</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1033,7 +1042,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6699376968</x:v>
+        <x:v>45907.6668284375</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1065,7 +1074,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45907.6699376968</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1097,7 +1106,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45908.4162835648</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1129,7 +1138,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4167276968</x:v>
+        <x:v>45908.4162835648</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1161,7 +1170,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6658456829</x:v>
+        <x:v>45927.4167276968</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1193,7 +1202,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6653321412</x:v>
+        <x:v>45907.6658456829</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1225,7 +1234,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6658606482</x:v>
+        <x:v>45907.6653321412</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1257,7 +1266,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6674473032</x:v>
+        <x:v>45907.6658606482</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1289,7 +1298,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45922.3910580208</x:v>
+        <x:v>45907.6674473032</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1321,7 +1330,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4856465278</x:v>
+        <x:v>45922.3910580208</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1349,9 +1358,11 @@
       <x:c r="C20" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s"/>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4720945602</x:v>
+        <x:v>45909.4856465278</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1374,16 +1385,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
+      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45907.6651458333</x:v>
+        <x:v>45927.4720945602</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1415,7 +1424,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6656043171</x:v>
+        <x:v>45907.6651458333</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1447,7 +1456,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45922.3872527431</x:v>
+        <x:v>45907.6656043171</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1479,7 +1488,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45922.3872527431</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1511,7 +1520,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1543,7 +1552,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6646742245</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1575,7 +1584,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45916.9570266551</x:v>
+        <x:v>45907.6646742245</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1607,7 +1616,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45916.9570266551</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1624,6 +1633,38 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45907.6658591782</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/AERS212_Lecture-35770.xlsx
+++ b/downloaded_files/AERS212_Lecture-35770.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>4250205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد انور محمد على محمد صابر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Anwar Mohammed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240206</x:t>
   </x:si>
   <x:si>
@@ -193,6 +202,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Algharieb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد ايمن نبيل ابراهيم حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Ayman Nabil Ibrahim Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1220078</x:t>
@@ -395,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -695,7 +713,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -786,7 +804,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.6650081829</x:v>
+        <x:v>45929.4869504977</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -818,7 +836,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6663296644</x:v>
+        <x:v>45907.6650081829</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -850,7 +868,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45927.5221410069</x:v>
+        <x:v>45907.6663296644</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -882,7 +900,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45928.9611408912</x:v>
+        <x:v>45927.5221410069</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -914,7 +932,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6664052431</x:v>
+        <x:v>45928.9611408912</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -946,7 +964,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45908.4188600694</x:v>
+        <x:v>45907.6664052431</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -978,7 +996,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6825510069</x:v>
+        <x:v>45908.4188600694</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1010,7 +1028,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6652091435</x:v>
+        <x:v>45907.6825510069</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1042,7 +1060,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6668284375</x:v>
+        <x:v>45907.6652091435</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1074,7 +1092,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6699376968</x:v>
+        <x:v>45907.6668284375</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1106,7 +1124,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45907.6699376968</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1138,7 +1156,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4162835648</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1170,7 +1188,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4167276968</x:v>
+        <x:v>45908.4162835648</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1202,7 +1220,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6658456829</x:v>
+        <x:v>45927.4167276968</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1234,7 +1252,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6653321412</x:v>
+        <x:v>45907.6658456829</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1266,7 +1284,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6658606482</x:v>
+        <x:v>45907.6653321412</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1298,7 +1316,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6674473032</x:v>
+        <x:v>45907.6658606482</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1330,7 +1348,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45922.3910580208</x:v>
+        <x:v>45907.6674473032</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1362,7 +1380,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4856465278</x:v>
+        <x:v>45922.3910580208</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1390,9 +1408,11 @@
       <x:c r="C21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s"/>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.4720945602</x:v>
+        <x:v>45929.5007931713</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1415,16 +1435,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6651458333</x:v>
+        <x:v>45909.4856465278</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1447,16 +1467,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
+      <x:c r="D23" s="2" t="s"/>
       <x:c r="E23" s="3">
-        <x:v>45907.6656043171</x:v>
+        <x:v>45927.4720945602</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1488,7 +1506,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45922.3872527431</x:v>
+        <x:v>45907.6651458333</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1520,7 +1538,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.6656043171</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1552,7 +1570,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45922.3872527431</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1584,7 +1602,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6646742245</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1616,7 +1634,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45916.9570266551</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1648,7 +1666,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45907.6646742245</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1665,6 +1683,70 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45916.9570266551</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45907.6658591782</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/AERS212_Lecture-35770.xlsx
+++ b/downloaded_files/AERS212_Lecture-35770.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -148,6 +148,15 @@
   </x:si>
   <x:si>
     <x:t>Syed Faseeh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230047</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سيف الدين وليد فخرى حامد حسين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Saif waleed</x:t>
   </x:si>
   <x:si>
     <x:t>1240076</x:t>
@@ -413,7 +422,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -713,7 +722,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1220,7 +1229,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4167276968</x:v>
+        <x:v>45934.8578114236</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1252,7 +1261,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6658456829</x:v>
+        <x:v>45927.4167276968</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1284,7 +1293,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6653321412</x:v>
+        <x:v>45907.6658456829</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1316,7 +1325,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6658606482</x:v>
+        <x:v>45907.6653321412</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1348,7 +1357,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6674473032</x:v>
+        <x:v>45907.6658606482</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1380,7 +1389,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45922.3910580208</x:v>
+        <x:v>45907.6674473032</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1412,7 +1421,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45929.5007931713</x:v>
+        <x:v>45922.3910580208</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1444,7 +1453,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4856465278</x:v>
+        <x:v>45929.5007931713</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1472,9 +1481,11 @@
       <x:c r="C23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s"/>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.4720945602</x:v>
+        <x:v>45909.4856465278</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1497,16 +1508,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
+      <x:c r="D24" s="2" t="s"/>
       <x:c r="E24" s="3">
-        <x:v>45907.6651458333</x:v>
+        <x:v>45927.4720945602</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1538,7 +1547,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6656043171</x:v>
+        <x:v>45907.6651458333</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1570,7 +1579,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45922.3872527431</x:v>
+        <x:v>45907.6656043171</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1602,7 +1611,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45922.3872527431</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1634,7 +1643,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1666,7 +1675,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6646742245</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1698,7 +1707,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45916.9570266551</x:v>
+        <x:v>45907.6646742245</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1730,7 +1739,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45916.9570266551</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1747,6 +1756,38 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45907.6658591782</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/AERS212_Lecture-35770.xlsx
+++ b/downloaded_files/AERS212_Lecture-35770.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -234,7 +234,10 @@
     <x:t>4240046</x:t>
   </x:si>
   <x:si>
-    <x:t>محمد شعبان محمد صالح</x:t>
+    <x:t>محمد شعبان محمد صالح حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mohamed shabaan mohamed saleh hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1240261</x:t>
@@ -1513,7 +1516,9 @@
       <x:c r="C24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s"/>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
       <x:c r="E24" s="3">
         <x:v>45927.4720945602</x:v>
       </x:c>
@@ -1538,13 +1543,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
         <x:v>45907.6651458333</x:v>
@@ -1570,13 +1575,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
         <x:v>45907.6656043171</x:v>
@@ -1602,13 +1607,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
         <x:v>45922.3872527431</x:v>
@@ -1634,13 +1639,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
         <x:v>45907.6648476505</x:v>
@@ -1666,13 +1671,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
         <x:v>45907.664794213</x:v>
@@ -1698,13 +1703,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
         <x:v>45907.6646742245</x:v>
@@ -1730,13 +1735,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
         <x:v>45916.9570266551</x:v>
@@ -1762,13 +1767,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D32" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
         <x:v>45907.6658591782</x:v>

--- a/downloaded_files/AERS212_Lecture-35770.xlsx
+++ b/downloaded_files/AERS212_Lecture-35770.xlsx
@@ -192,7 +192,7 @@
     <x:t>على حسن على حسن على</x:t>
   </x:si>
   <x:si>
-    <x:t>Ali Hassan Ali Hassan</x:t>
+    <x:t>Ali Hassan Ali Hassan Ali</x:t>
   </x:si>
   <x:si>
     <x:t>1240125</x:t>
@@ -273,7 +273,7 @@
     <x:t>مينا وجيه خليل شاكر اسحاق عبد المسيح</x:t>
   </x:si>
   <x:si>
-    <x:t>Mina Wageh Khalil Shaker Eshak Abdelmaish</x:t>
+    <x:t>Mina Wageh Khalil Shaker Eshak Abdelmasih</x:t>
   </x:si>
   <x:si>
     <x:t>1240385</x:t>
@@ -291,7 +291,7 @@
     <x:t>هنا ايمن عبداللطيف عبدالحميد احمد سلام</x:t>
   </x:si>
   <x:si>
-    <x:t>Hana Ayman Abdellatif</x:t>
+    <x:t>Hana Ayman Abdellatif Abdelhamed Ahmed Sallam</x:t>
   </x:si>
   <x:si>
     <x:t>4250198</x:t>

--- a/downloaded_files/AERS212_Lecture-35770.xlsx
+++ b/downloaded_files/AERS212_Lecture-35770.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,15 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>4250205</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد انور محمد على محمد صابر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Anwar Mohammed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240206</x:t>
   </x:si>
   <x:si>
@@ -202,15 +193,6 @@
   </x:si>
   <x:si>
     <x:t>Loai Atef Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد الغريب عبدالوهاب الغريب مصطفى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Algharieb</x:t>
   </x:si>
   <x:si>
     <x:t>4250175</x:t>
@@ -425,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -725,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -816,7 +798,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45929.4869504977</x:v>
+        <x:v>45907.6650081829</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -848,7 +830,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6650081829</x:v>
+        <x:v>45907.6663296644</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -880,7 +862,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6663296644</x:v>
+        <x:v>45927.5221410069</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -912,7 +894,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.5221410069</x:v>
+        <x:v>45928.9611408912</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -944,7 +926,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45928.9611408912</x:v>
+        <x:v>45907.6664052431</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -976,7 +958,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6664052431</x:v>
+        <x:v>45908.4188600694</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1008,7 +990,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45908.4188600694</x:v>
+        <x:v>45907.6825510069</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1040,7 +1022,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6825510069</x:v>
+        <x:v>45907.6652091435</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1072,7 +1054,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6652091435</x:v>
+        <x:v>45907.6668284375</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1104,7 +1086,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6668284375</x:v>
+        <x:v>45907.6699376968</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1136,7 +1118,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6699376968</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1168,7 +1150,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45908.4162835648</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1200,7 +1182,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4162835648</x:v>
+        <x:v>45934.8578114236</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1232,7 +1214,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45934.8578114236</x:v>
+        <x:v>45927.4167276968</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1264,7 +1246,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.4167276968</x:v>
+        <x:v>45907.6658456829</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1296,7 +1278,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6658456829</x:v>
+        <x:v>45907.6653321412</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1328,7 +1310,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6653321412</x:v>
+        <x:v>45907.6658606482</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1360,7 +1342,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6658606482</x:v>
+        <x:v>45907.6674473032</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1392,7 +1374,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6674473032</x:v>
+        <x:v>45929.5007931713</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1424,7 +1406,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45922.3910580208</x:v>
+        <x:v>45909.4856465278</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1456,7 +1438,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45929.5007931713</x:v>
+        <x:v>45927.4720945602</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1488,7 +1470,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4856465278</x:v>
+        <x:v>45907.6651458333</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1520,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.4720945602</x:v>
+        <x:v>45907.6656043171</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1552,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6651458333</x:v>
+        <x:v>45922.3872527431</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1584,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6656043171</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1616,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45922.3872527431</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1648,7 +1630,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.6646742245</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1680,7 +1662,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45916.9570266551</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1712,7 +1694,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6646742245</x:v>
+        <x:v>45907.6658591782</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1729,70 +1711,6 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45916.9570266551</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45907.6658591782</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
